--- a/analysis/metadata/P06_3/P06_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P06_3/P06_3_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/01/2017 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -494,6 +494,11 @@
       <c r="L2" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>01/01/2017 00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -541,7 +546,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/01/2017 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -562,6 +567,11 @@
       <c r="L3" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>01/01/2017 00:00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -609,7 +619,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/01/2017 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -630,6 +640,11 @@
       <c r="L4" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>01/01/2017 00:00</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -677,7 +692,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/01/2017 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -698,6 +713,11 @@
       <c r="L5" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>01/01/2017 00:00</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -740,7 +760,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/01/2017 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -761,6 +781,11 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>01/01/2017 00:00</t>
         </is>
       </c>
     </row>
@@ -793,7 +818,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/01/2017 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -814,6 +839,11 @@
       <c r="L7" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>01/01/2017 00:00</t>
         </is>
       </c>
     </row>
@@ -851,7 +881,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/01/2017 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -872,6 +902,11 @@
       <c r="L8" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>01/01/2017 00:00</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -914,7 +949,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/01/2017 00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -935,6 +970,11 @@
       <c r="L9" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>01/01/2017 00:00</t>
         </is>
       </c>
     </row>
@@ -967,7 +1007,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/01/2017 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -988,6 +1028,11 @@
       <c r="L10" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>01/01/2017 00:00</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1065,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1041,6 +1086,11 @@
       <c r="L11" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1128,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1099,6 +1149,11 @@
       <c r="L12" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1146,7 +1201,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1167,6 +1222,11 @@
       <c r="L13" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1214,7 +1274,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1235,6 +1295,11 @@
       <c r="L14" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1282,7 +1347,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1303,6 +1368,11 @@
       <c r="L15" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1350,7 +1420,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1371,6 +1441,11 @@
       <c r="L16" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1418,7 +1493,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1439,6 +1514,11 @@
       <c r="L17" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1486,7 +1566,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1507,6 +1587,11 @@
       <c r="L18" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1554,7 +1639,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1575,6 +1660,11 @@
       <c r="L19" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1617,7 +1707,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1638,6 +1728,11 @@
       <c r="L20" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1765,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1691,6 +1786,11 @@
       <c r="L21" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1828,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1749,6 +1849,11 @@
       <c r="L22" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1796,7 +1901,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1817,6 +1922,11 @@
       <c r="L23" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1864,7 +1974,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1885,6 +1995,11 @@
       <c r="L24" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1932,7 +2047,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1953,6 +2068,11 @@
       <c r="L25" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2000,7 +2120,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2021,6 +2141,11 @@
       <c r="L26" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2068,7 +2193,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2089,6 +2214,11 @@
       <c r="L27" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2136,7 +2266,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2157,6 +2287,11 @@
       <c r="L28" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2199,7 +2334,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2220,6 +2355,11 @@
       <c r="L29" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2392,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2273,6 +2413,11 @@
       <c r="L30" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2450,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2326,6 +2471,11 @@
       <c r="L31" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -2358,7 +2508,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2379,6 +2529,11 @@
       <c r="L32" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2566,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2432,6 +2587,11 @@
       <c r="L33" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2624,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2485,6 +2645,11 @@
       <c r="L34" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2682,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2538,6 +2703,11 @@
       <c r="L35" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2740,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2591,6 +2761,11 @@
       <c r="L36" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -2628,7 +2803,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2649,6 +2824,11 @@
       <c r="L37" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2691,7 +2871,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2712,6 +2892,11 @@
       <c r="L38" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -2744,7 +2929,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2765,6 +2950,11 @@
       <c r="L39" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2987,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2818,6 +3008,11 @@
       <c r="L40" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -2850,7 +3045,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2871,6 +3066,11 @@
       <c r="L41" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -2903,7 +3103,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2924,6 +3124,11 @@
       <c r="L42" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -2956,7 +3161,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2977,6 +3182,11 @@
       <c r="L43" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>01/12/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -3014,7 +3224,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3035,6 +3245,11 @@
       <c r="L44" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3082,7 +3297,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3103,6 +3318,11 @@
       <c r="L45" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3145,7 +3365,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3166,6 +3386,11 @@
       <c r="L46" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -3198,7 +3423,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3219,6 +3444,11 @@
       <c r="L47" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3486,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3277,6 +3507,11 @@
       <c r="L48" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3319,7 +3554,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3340,6 +3575,11 @@
       <c r="L49" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -3372,7 +3612,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3393,6 +3633,11 @@
       <c r="L50" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -3430,7 +3675,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3451,6 +3696,11 @@
       <c r="L51" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3498,7 +3748,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3519,6 +3769,11 @@
       <c r="L52" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3561,7 +3816,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3582,6 +3837,11 @@
       <c r="L53" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -3614,7 +3874,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3635,6 +3895,11 @@
       <c r="L54" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>01/07/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3932,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3688,6 +3953,11 @@
       <c r="L55" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -3720,7 +3990,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3741,6 +4011,11 @@
       <c r="L56" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -3773,7 +4048,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3794,6 +4069,11 @@
       <c r="L57" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -3826,7 +4106,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3847,6 +4127,11 @@
       <c r="L58" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -3879,7 +4164,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3900,6 +4185,11 @@
       <c r="L59" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -3932,7 +4222,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3953,6 +4243,11 @@
       <c r="L60" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -3985,7 +4280,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4006,6 +4301,11 @@
       <c r="L61" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4338,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4059,6 +4359,11 @@
       <c r="L62" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4396,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4112,6 +4417,11 @@
       <c r="L63" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -4144,7 +4454,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4165,6 +4475,11 @@
       <c r="L64" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4512,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4218,6 +4533,11 @@
       <c r="L65" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4570,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4271,6 +4591,11 @@
       <c r="L66" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -4303,7 +4628,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4324,6 +4649,11 @@
       <c r="L67" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4686,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4377,6 +4707,11 @@
       <c r="L68" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -4409,7 +4744,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4430,6 +4765,11 @@
       <c r="L69" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>01/12/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -4462,7 +4802,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4483,6 +4823,11 @@
       <c r="L70" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -4515,7 +4860,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4536,6 +4881,11 @@
       <c r="L71" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -4573,7 +4923,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4594,6 +4944,11 @@
       <c r="L72" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -4641,7 +4996,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4662,6 +5017,11 @@
       <c r="L73" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -4709,7 +5069,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4730,6 +5090,11 @@
       <c r="L74" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -4777,7 +5142,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4798,6 +5163,11 @@
       <c r="L75" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -4840,7 +5210,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4861,6 +5231,11 @@
       <c r="L76" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -4893,7 +5268,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4914,6 +5289,11 @@
       <c r="L77" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -4946,7 +5326,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4967,6 +5347,11 @@
       <c r="L78" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5389,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5025,6 +5410,11 @@
       <c r="L79" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -5072,7 +5462,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5093,6 +5483,11 @@
       <c r="L80" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -5135,7 +5530,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5156,6 +5551,11 @@
       <c r="L81" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5593,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5214,6 +5614,11 @@
       <c r="L82" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -5256,7 +5661,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5277,6 +5682,11 @@
       <c r="L83" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5719,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5330,6 +5740,11 @@
       <c r="L84" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -5367,7 +5782,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5388,6 +5803,11 @@
       <c r="L85" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -5430,7 +5850,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5451,6 +5871,11 @@
       <c r="L86" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -5483,7 +5908,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5504,6 +5929,11 @@
       <c r="L87" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5966,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5557,6 +5987,11 @@
       <c r="L88" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -5589,7 +6024,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5610,6 +6045,11 @@
       <c r="L89" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -5642,7 +6082,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5663,6 +6103,11 @@
       <c r="L90" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
     </row>
@@ -5695,7 +6140,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5716,6 +6161,11 @@
       <c r="L91" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>01/07/2021 00:00</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P06_3/P06_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P06_3/P06_3_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>01/01/2017 00:00</t>
+          <t>2017-01-01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>01/01/2017 00:00</t>
+          <t>2017-01-01</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>01/01/2017 00:00</t>
+          <t>2017-01-01</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>01/01/2017 00:00</t>
+          <t>2017-01-01</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>01/01/2017 00:00</t>
+          <t>2017-01-01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>01/01/2017 00:00</t>
+          <t>2017-01-01</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>01/01/2017 00:00</t>
+          <t>2017-01-01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>01/01/2017 00:00</t>
+          <t>2017-01-01</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>01/01/2017 00:00</t>
+          <t>2017-01-01</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>01/01/2017 00:00</t>
+          <t>2017-01-01</t>
         </is>
       </c>
     </row>
@@ -818,7 +818,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>01/01/2017 00:00</t>
+          <t>2017-01-01</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>01/01/2017 00:00</t>
+          <t>2017-01-01</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>01/01/2017 00:00</t>
+          <t>2017-01-01</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>01/01/2017 00:00</t>
+          <t>2017-01-01</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>01/01/2017 00:00</t>
+          <t>2017-01-01</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>01/01/2017 00:00</t>
+          <t>2017-01-01</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>01/01/2017 00:00</t>
+          <t>2017-01-01</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>01/01/2017 00:00</t>
+          <t>2017-01-01</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1707,7 +1707,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
     </row>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
     </row>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
     </row>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>01/12/2020 00:00</t>
+          <t>2020-12-01</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3365,7 +3365,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
     </row>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3554,7 +3554,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
     </row>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
     </row>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>01/07/2020 00:00</t>
+          <t>2020-07-01</t>
         </is>
       </c>
     </row>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
     </row>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
     </row>
@@ -4048,7 +4048,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
     </row>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
     </row>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
     </row>
@@ -4338,7 +4338,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
     </row>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
     </row>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
     </row>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
     </row>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>01/12/2021 00:00</t>
+          <t>2021-12-01</t>
         </is>
       </c>
     </row>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
     </row>
@@ -4860,7 +4860,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
     </row>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
     </row>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5293,7 +5293,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
     </row>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5351,7 +5351,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
     </row>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5555,7 +5555,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
     </row>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
     </row>
@@ -5782,7 +5782,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
     </row>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5933,7 +5933,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
     </row>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
     </row>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
     </row>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>01/07/2021 00:00</t>
+          <t>2021-07-01</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P06_3/P06_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P06_3/P06_3_minimal_metadata.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -509,6 +509,11 @@
       <c r="O2" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -536,7 +541,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -582,6 +587,11 @@
       <c r="O3" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -609,7 +619,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -655,6 +665,11 @@
       <c r="O4" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -682,7 +697,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -728,6 +743,11 @@
       <c r="O5" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -753,6 +773,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6190</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>aretsminde</t>
@@ -786,6 +811,21 @@
       <c r="M6" t="inlineStr">
         <is>
           <t>2017-01-01</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Below detection limit</t>
         </is>
       </c>
     </row>
@@ -811,6 +851,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6190</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>aretsminde</t>
@@ -844,6 +889,21 @@
       <c r="M7" t="inlineStr">
         <is>
           <t>2017-01-01</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Below detection limit</t>
         </is>
       </c>
     </row>
@@ -871,7 +931,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -917,6 +977,11 @@
       <c r="O8" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -942,6 +1007,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6190</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>aretsminde</t>
@@ -975,6 +1045,21 @@
       <c r="M9" t="inlineStr">
         <is>
           <t>2017-01-01</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Below detection limit</t>
         </is>
       </c>
     </row>
@@ -1000,6 +1085,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6190</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>aretsminde</t>
@@ -1033,6 +1123,21 @@
       <c r="M10" t="inlineStr">
         <is>
           <t>2017-01-01</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Below detection limit</t>
         </is>
       </c>
     </row>
@@ -1058,6 +1163,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6190</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>viby</t>
@@ -1091,6 +1201,21 @@
       <c r="M11" t="inlineStr">
         <is>
           <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Below detection limit</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1243,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1164,6 +1289,11 @@
       <c r="O12" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1321,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1237,6 +1367,11 @@
       <c r="O13" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1399,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1310,6 +1445,11 @@
       <c r="O14" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1477,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1383,6 +1523,11 @@
       <c r="O15" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1555,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1456,6 +1601,11 @@
       <c r="O16" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1633,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1529,6 +1679,11 @@
       <c r="O17" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1711,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1602,6 +1757,11 @@
       <c r="O18" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1789,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1675,6 +1835,11 @@
       <c r="O19" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -1700,6 +1865,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6190</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>viby</t>
@@ -1733,6 +1903,21 @@
       <c r="M20" t="inlineStr">
         <is>
           <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Below detection limit</t>
         </is>
       </c>
     </row>
@@ -1758,6 +1943,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6190</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>viby</t>
@@ -1791,6 +1981,21 @@
       <c r="M21" t="inlineStr">
         <is>
           <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Below detection limit</t>
         </is>
       </c>
     </row>
@@ -1818,7 +2023,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1864,6 +2069,11 @@
       <c r="O22" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -1891,7 +2101,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1937,6 +2147,11 @@
       <c r="O23" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -1964,7 +2179,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2010,6 +2225,11 @@
       <c r="O24" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2257,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2083,6 +2303,11 @@
       <c r="O25" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2335,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2156,6 +2381,11 @@
       <c r="O26" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -2183,7 +2413,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2229,6 +2459,11 @@
       <c r="O27" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2491,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2302,6 +2537,11 @@
       <c r="O28" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -2327,6 +2567,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
           <t>viby</t>
@@ -2360,6 +2605,21 @@
       <c r="M29" t="inlineStr">
         <is>
           <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -2385,6 +2645,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>viby</t>
@@ -2418,6 +2683,21 @@
       <c r="M30" t="inlineStr">
         <is>
           <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -2443,6 +2723,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
           <t>viby</t>
@@ -2476,6 +2761,21 @@
       <c r="M31" t="inlineStr">
         <is>
           <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -2501,6 +2801,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>viby</t>
@@ -2534,6 +2839,21 @@
       <c r="M32" t="inlineStr">
         <is>
           <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -2559,6 +2879,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>viby</t>
@@ -2592,6 +2917,21 @@
       <c r="M33" t="inlineStr">
         <is>
           <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -2617,6 +2957,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>viby</t>
@@ -2650,6 +2995,21 @@
       <c r="M34" t="inlineStr">
         <is>
           <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -2675,6 +3035,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
           <t>viby</t>
@@ -2708,6 +3073,21 @@
       <c r="M35" t="inlineStr">
         <is>
           <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -2733,6 +3113,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
           <t>viby</t>
@@ -2766,6 +3151,21 @@
       <c r="M36" t="inlineStr">
         <is>
           <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -2793,7 +3193,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2839,6 +3239,11 @@
       <c r="O37" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -2864,6 +3269,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>viby</t>
@@ -2897,6 +3307,21 @@
       <c r="M38" t="inlineStr">
         <is>
           <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -2922,6 +3347,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>viby</t>
@@ -2955,6 +3385,21 @@
       <c r="M39" t="inlineStr">
         <is>
           <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -2980,6 +3425,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
           <t>viby</t>
@@ -3013,6 +3463,21 @@
       <c r="M40" t="inlineStr">
         <is>
           <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -3038,6 +3503,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>viby</t>
@@ -3071,6 +3541,21 @@
       <c r="M41" t="inlineStr">
         <is>
           <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -3096,6 +3581,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
           <t>viby</t>
@@ -3129,6 +3619,21 @@
       <c r="M42" t="inlineStr">
         <is>
           <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -3154,6 +3659,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>viby</t>
@@ -3187,6 +3697,21 @@
       <c r="M43" t="inlineStr">
         <is>
           <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -3214,7 +3739,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3260,6 +3785,11 @@
       <c r="O44" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3817,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3333,6 +3863,11 @@
       <c r="O45" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -3358,6 +3893,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6190</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>viby</t>
@@ -3391,6 +3931,21 @@
       <c r="M46" t="inlineStr">
         <is>
           <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Below detection limit</t>
         </is>
       </c>
     </row>
@@ -3416,6 +3971,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6190</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
           <t>viby</t>
@@ -3449,6 +4009,21 @@
       <c r="M47" t="inlineStr">
         <is>
           <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Below detection limit</t>
         </is>
       </c>
     </row>
@@ -3476,7 +4051,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3522,6 +4097,11 @@
       <c r="O48" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -3547,6 +4127,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6190</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>viby</t>
@@ -3580,6 +4165,21 @@
       <c r="M49" t="inlineStr">
         <is>
           <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Below detection limit</t>
         </is>
       </c>
     </row>
@@ -3605,6 +4205,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6190</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
           <t>viby</t>
@@ -3638,6 +4243,21 @@
       <c r="M50" t="inlineStr">
         <is>
           <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Below detection limit</t>
         </is>
       </c>
     </row>
@@ -3665,7 +4285,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3711,6 +4331,11 @@
       <c r="O51" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -3738,7 +4363,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3784,6 +4409,11 @@
       <c r="O52" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -3809,6 +4439,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6190</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
           <t>viby</t>
@@ -3842,6 +4477,21 @@
       <c r="M53" t="inlineStr">
         <is>
           <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Below detection limit</t>
         </is>
       </c>
     </row>
@@ -3867,6 +4517,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6190</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
           <t>viby</t>
@@ -3900,6 +4555,21 @@
       <c r="M54" t="inlineStr">
         <is>
           <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Below detection limit</t>
         </is>
       </c>
     </row>
@@ -3925,6 +4595,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
           <t>viby</t>
@@ -3958,6 +4633,16 @@
       <c r="M55" t="inlineStr">
         <is>
           <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -3983,6 +4668,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
           <t>viby</t>
@@ -4016,6 +4706,16 @@
       <c r="M56" t="inlineStr">
         <is>
           <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -4041,6 +4741,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
           <t>blommenslyst</t>
@@ -4074,6 +4779,16 @@
       <c r="M57" t="inlineStr">
         <is>
           <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -4099,6 +4814,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
           <t>viby</t>
@@ -4132,6 +4852,16 @@
       <c r="M58" t="inlineStr">
         <is>
           <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -4157,6 +4887,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
           <t>viby</t>
@@ -4190,6 +4925,16 @@
       <c r="M59" t="inlineStr">
         <is>
           <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -4215,6 +4960,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
           <t>viby</t>
@@ -4248,6 +4998,16 @@
       <c r="M60" t="inlineStr">
         <is>
           <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -4273,6 +5033,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>viby</t>
@@ -4306,6 +5071,16 @@
       <c r="M61" t="inlineStr">
         <is>
           <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -4331,6 +5106,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
           <t>viby</t>
@@ -4364,6 +5144,16 @@
       <c r="M62" t="inlineStr">
         <is>
           <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -4389,6 +5179,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
           <t>viby</t>
@@ -4422,6 +5217,16 @@
       <c r="M63" t="inlineStr">
         <is>
           <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -4447,6 +5252,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
           <t>viby</t>
@@ -4480,6 +5290,16 @@
       <c r="M64" t="inlineStr">
         <is>
           <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -4505,6 +5325,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
           <t>viby</t>
@@ -4538,6 +5363,16 @@
       <c r="M65" t="inlineStr">
         <is>
           <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -4563,6 +5398,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
           <t>viby</t>
@@ -4596,6 +5436,16 @@
       <c r="M66" t="inlineStr">
         <is>
           <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -4621,6 +5471,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
         <is>
           <t>blommenslyst</t>
@@ -4654,6 +5509,16 @@
       <c r="M67" t="inlineStr">
         <is>
           <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -4679,6 +5544,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
           <t>viby</t>
@@ -4712,6 +5582,16 @@
       <c r="M68" t="inlineStr">
         <is>
           <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -4737,6 +5617,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
           <t>viby</t>
@@ -4770,6 +5655,16 @@
       <c r="M69" t="inlineStr">
         <is>
           <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -4795,6 +5690,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
           <t>ebeltoft</t>
@@ -4828,6 +5728,16 @@
       <c r="M70" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -4853,6 +5763,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
           <t>ebeltoft</t>
@@ -4886,6 +5801,16 @@
       <c r="M71" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -4913,7 +5838,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4959,6 +5884,11 @@
       <c r="O72" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -4986,7 +5916,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5032,6 +5962,11 @@
       <c r="O73" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -5059,7 +5994,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5105,6 +6040,11 @@
       <c r="O74" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -5132,7 +6072,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5178,6 +6118,11 @@
       <c r="O75" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -5203,6 +6148,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
           <t>ebeltoft</t>
@@ -5236,6 +6186,16 @@
       <c r="M76" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -5261,6 +6221,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
           <t>ebeltoft</t>
@@ -5294,6 +6259,21 @@
       <c r="M77" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -5319,6 +6299,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
           <t>ebeltoft</t>
@@ -5352,6 +6337,21 @@
       <c r="M78" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -5379,7 +6379,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5425,6 +6425,11 @@
       <c r="O79" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -5452,7 +6457,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5498,6 +6503,11 @@
       <c r="O80" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -5523,6 +6533,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr">
         <is>
           <t>ebeltoft</t>
@@ -5556,6 +6571,16 @@
       <c r="M81" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -5583,7 +6608,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5629,6 +6654,11 @@
       <c r="O82" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -5654,6 +6684,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr">
         <is>
           <t>ebeltoft</t>
@@ -5687,6 +6722,16 @@
       <c r="M83" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -5712,6 +6757,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr">
         <is>
           <t>ebeltoft</t>
@@ -5745,6 +6795,16 @@
       <c r="M84" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -5772,7 +6832,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5818,6 +6878,11 @@
       <c r="O85" t="inlineStr">
         <is>
           <t>Potential pollution</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Pollution</t>
         </is>
       </c>
     </row>
@@ -5843,6 +6908,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr">
         <is>
           <t>ebeltoft</t>
@@ -5876,6 +6946,16 @@
       <c r="M86" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -5901,6 +6981,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
           <t>ebeltoft</t>
@@ -5934,6 +7019,16 @@
       <c r="M87" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -5959,6 +7054,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
           <t>ebeltoft</t>
@@ -5992,6 +7092,21 @@
       <c r="M88" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -6017,6 +7132,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr">
         <is>
           <t>ebeltoft</t>
@@ -6050,6 +7170,21 @@
       <c r="M89" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -6075,6 +7210,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr">
         <is>
           <t>ebeltoft</t>
@@ -6108,6 +7248,21 @@
       <c r="M90" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -6133,6 +7288,11 @@
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr">
         <is>
           <t>ebeltoft</t>
@@ -6166,6 +7326,21 @@
       <c r="M91" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>No pollution</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P06_3/P06_3_minimal_metadata.xlsx
+++ b/analysis/metadata/P06_3/P06_3_minimal_metadata.xlsx
@@ -2612,16 +2612,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2690,16 +2680,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2768,16 +2748,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2846,16 +2816,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2924,16 +2884,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3002,16 +2952,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3080,16 +3020,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3158,16 +3088,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3314,16 +3234,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3392,16 +3302,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3470,16 +3370,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3548,16 +3438,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3626,16 +3506,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3704,16 +3574,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6266,16 +6126,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6344,16 +6194,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7099,16 +6939,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7177,16 +7007,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7255,16 +7075,6 @@
           <t>Urban</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7331,16 +7141,6 @@
       <c r="N91" t="inlineStr">
         <is>
           <t>Urban</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>No pollution</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>No pollution</t>
         </is>
       </c>
     </row>
